--- a/INTLINE/data/578/NESDC/QGDP/Table 1A_historical.xlsx
+++ b/INTLINE/data/578/NESDC/QGDP/Table 1A_historical.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Private final consumption expenditure</t>
-  </si>
-  <si>
-    <t>General government final consumption expenditure</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation</t>
-  </si>
-  <si>
-    <t>Change in inventories</t>
-  </si>
-  <si>
-    <t>Exports of goods and services</t>
-  </si>
-  <si>
-    <t>Imports of goods and services</t>
-  </si>
-  <si>
-    <t>Statistical discrepancy</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -94,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -391,1512 +353,1549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:64">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:64">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Private final consumption expenditure</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>39327.8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>42491.9</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>46752</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>49884.3</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>53613</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>58573.6</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>66662.7</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>75006</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>81697</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>86504</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>103190</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>104823</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>117605</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>149037</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>190135</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>211292</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>237665</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>271865</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>314983</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>364028</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>433585</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>496417</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>534991</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>599560</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>628937</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>657365</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>695784</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>781064</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>885008</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>1030563</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>1234981</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>1378062</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>1550497</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>1695658</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>1923156</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>2163675</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>2398573</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>2496496</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>2429533</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>2547642</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>2744483</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>2993350</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>3211202</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>3514396</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>3885695</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>4251878</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>4574248</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>4769451</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>5206738</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>5125447</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>5639207</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>5988244</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>6582558</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>6787206</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>6958639</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>7056549</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>7296548</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>7578737</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>8004684</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>8406493</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>8301573</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>8422639</v>
       </c>
+      <c r="BL2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:64">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>General government final consumption expenditure</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>5342</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5626.1</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>6279.7</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>6923.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>7477.8</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>8333.9</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>9288.4</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>10698</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>13134</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>14058</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>16578</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>17676</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>18572</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>21635</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>26085</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>31290</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>38009</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>42923</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>54583</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>66798</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>81433</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>97007</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>110167</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>118577</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>130100</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>142923</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>144564</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>147224</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>156710</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>176798</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>205354</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>231127</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>280203</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>359018</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>407728</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>474507</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>537348</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>569186</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>614234</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>649934</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>688277</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>720212</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>759991</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>816546</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>911963</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>1039643</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>1134277</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>1263961</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>1392163</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>1543460</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>1707775</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>1825136</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>2020794</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>2113370</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>2238086</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>2353042</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>2460687</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>2524405</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>2648219</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>2732168</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>2789729</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>2940536</v>
       </c>
+      <c r="BL3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:64">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>7554.6</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>8314.700000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>10092.8</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>12084.9</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>14518.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>15985.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>20364.1</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>24788</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>24814</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>30774</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>34995</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>35787</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>38631</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>49937</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>65031</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>69380</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>79367</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>104622</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>123249</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>142859</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>183987</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>212821</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>226728</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>262138</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>282599</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>286999</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>292193</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>359269</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>478534</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>642876</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>881764</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>1043552</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>1111283</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>1274845</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>1475626</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>1742772</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>1932208</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>1630306</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>1041478</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>977604</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>1093810</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>1201576</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>1264206</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>1454995</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>1729126</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>2110153</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>2255290</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>2310486</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>2567261</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>2232017</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>2593166</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>2921294</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>3335698</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>3278324</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>3262777</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>3371068</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>3459898</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>3579177</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>3730867</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>3812174</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>3634581</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>3815860</v>
       </c>
+      <c r="BL4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:64">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Change in inventories</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>902.6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>603.9</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1644.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>2534.9</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>469.3</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>1026.3</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>3543.7</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>-105.5</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>578</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>3103</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>2736</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>1349</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>-1759</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>10021</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>9334</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>11754</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>3742</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>3858</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>14247</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>9191</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>9073</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>12817</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>-3573</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>13931</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>8616</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>11405</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>1043</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>3078</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>29820</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>8299</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>21214</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>30325</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>20062</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>19304</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>33499</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>65011</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>40715</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>-15860</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>-97806</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>-11333</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>35878</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>33784</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>48038</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>50374</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>56832</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>206208</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>13862</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>3609</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>172659</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>-238816</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>147418</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>107991</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>127344</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>267804</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>-98218</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>-298625</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>-380536</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>-26961</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>398423</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>209193</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>69460</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>895172</v>
       </c>
+      <c r="BL5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:64">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Exports of goods and services</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>9441.200000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>11076.4</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>10838.4</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>11161</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>14038.8</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>15386.6</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>19341.9</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>21398</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>21596</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>22368</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>22140</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>24527</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>30940</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>41317</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>60277</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>55695</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>70115</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>80532</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>97082</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>126150</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>159734</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>181325</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>192870</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>185222</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>216401</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>245252</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>290170</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>375597</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>514922</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>648490</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>745286.2</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>901494</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>1046659</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>1201505</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>1410786</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>1751674</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>1809910</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>2272115</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>2723953</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>2703308</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>3287284</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>3380750</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>3499004</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>3886566</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>4587869</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>5208464</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>5769171</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>6251055</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>6932341</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>6223911</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>7185922</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>8011498</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>8520540</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>8675259</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>9048752</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>9295635</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>9785868</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>10326731</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>10616164</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>10052249</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>8064406</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>9417432</v>
       </c>
+      <c r="BL6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:64">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Imports of goods and services</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>10184.2</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>10932.1</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>12194.2</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>13551.4</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>15188.1</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>16488</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>19706</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>23803</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>26370</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>27937</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>28569</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>28859</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>32632</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>44523</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>66884</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>69683</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>78673</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>102399</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>117721</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>163740</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>201180</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>229029</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>207282</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>251184</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>258557</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>274073</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>267131</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>368317</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>536596</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>696101</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>909456.3</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>1065490.6</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>1160170</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>1335682</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>1586561</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>2033895</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>2099234</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>2205119</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>1988906</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>2120348</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>2862304</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>3047574</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>3134265</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>3485273</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>4272712</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>5288296</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>5494996</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>5536630</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>6699780</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>5295925</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>6567499</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>7781469</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>8492423</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>8432453</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>8270443</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>7861679</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>7806464</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>8397736</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>9169689</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>8473404</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>7232371</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>9456208</v>
       </c>
+      <c r="BL7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:64">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Statistical discrepancy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
         <v>-3685</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>-1886</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>-1281</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>-5314</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>-4772</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>-6409</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>-3709</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>2128</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>1803</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>13575</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>-4150</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>-11002</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>-12332</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>-7255</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>-20026</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>-13375</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>-23226</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>1998</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>31406</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>46067</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>4402.1</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>-12434.4</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>-17620</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>48778</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>24856</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>53870</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>19084</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>-36814</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>-20933</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>43019</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>82392</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>62903</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>121402</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>79699</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>55509</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>86361</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>148792</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>14369</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>135547</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>68573</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>102156</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>234212</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>262831</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>225648</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>90711</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>-172510</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>-225664</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>-95689</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>144675</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>153538</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>9513</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>143288</v>
       </c>
+      <c r="BL8" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>